--- a/Team Mission#3/result8.xlsx
+++ b/Team Mission#3/result8.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>월</t>
+  </si>
+  <si>
+    <t>물품대분류</t>
+  </si>
+  <si>
+    <t>구매금액</t>
+  </si>
   <si>
     <t>간식</t>
   </si>
@@ -65,9 +74,6 @@
   </si>
   <si>
     <t>축산물</t>
-  </si>
-  <si>
-    <t>월</t>
   </si>
 </sst>
 </file>
@@ -425,121 +431,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>447968491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>171752574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>233851625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>273803360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>249400545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>52969380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>361432125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>280054978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>178063787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>64252620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>143048950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>447968491</v>
-      </c>
-      <c r="C2">
-        <v>171752574</v>
-      </c>
-      <c r="D2">
-        <v>233851625</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>273803360</v>
-      </c>
-      <c r="H2">
-        <v>4800</v>
-      </c>
-      <c r="I2">
-        <v>249400545</v>
-      </c>
-      <c r="J2">
-        <v>52969380</v>
-      </c>
-      <c r="K2">
-        <v>361432125</v>
-      </c>
-      <c r="L2">
-        <v>280054978</v>
-      </c>
-      <c r="M2">
-        <v>178063787</v>
-      </c>
-      <c r="N2">
-        <v>64252620</v>
-      </c>
-      <c r="O2">
-        <v>143048950</v>
-      </c>
-      <c r="P2">
+      <c r="C16">
         <v>6885330</v>
       </c>
-      <c r="Q2">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
         <v>598253978</v>
       </c>
-      <c r="R2">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
         <v>1115305245</v>
       </c>
     </row>
